--- a/2022级/2022级核工程与核技术班.xlsx
+++ b/2022级/2022级核工程与核技术班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14355" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>2023年核学院+年级+班级名称B类基本素质记实部分评分表</t>
   </si>
@@ -85,63 +85,111 @@
     <t>吴厚达</t>
   </si>
   <si>
+    <t>14.50</t>
+  </si>
+  <si>
     <t>张宏亮</t>
   </si>
   <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>张思哲</t>
   </si>
   <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>杨国斌</t>
   </si>
   <si>
+    <t>19.00</t>
+  </si>
+  <si>
     <t>李瑞雄</t>
   </si>
   <si>
+    <t>22.00</t>
+  </si>
+  <si>
     <t>张宇鹏</t>
   </si>
   <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>李振超</t>
   </si>
   <si>
+    <t>23.50</t>
+  </si>
+  <si>
     <t>李逸然</t>
   </si>
   <si>
+    <t>19.50</t>
+  </si>
+  <si>
     <t>蔡仙远</t>
   </si>
   <si>
+    <t>8.50</t>
+  </si>
+  <si>
     <t>吴靖宇</t>
   </si>
   <si>
+    <t>18.00</t>
+  </si>
+  <si>
     <t>周开宇</t>
   </si>
   <si>
+    <t>18.50</t>
+  </si>
+  <si>
     <t>吴钰彰</t>
   </si>
   <si>
+    <t>26.50</t>
+  </si>
+  <si>
     <t>王俊翔</t>
   </si>
   <si>
+    <t>5.50</t>
+  </si>
+  <si>
     <t>姚驰</t>
   </si>
   <si>
+    <t>9.50</t>
+  </si>
+  <si>
     <t>刘陇陇</t>
   </si>
   <si>
+    <t>13.50</t>
+  </si>
+  <si>
     <t>周千圣</t>
   </si>
   <si>
+    <t>24.50</t>
+  </si>
+  <si>
     <t>张亦阳</t>
   </si>
   <si>
     <t>李小龙</t>
   </si>
   <si>
+    <t>22.50</t>
+  </si>
+  <si>
     <t>赵一鸣</t>
   </si>
   <si>
-    <t>9.50</t>
-  </si>
-  <si>
     <t>杨曾淇</t>
   </si>
   <si>
@@ -176,9 +224,6 @@
   </si>
   <si>
     <t>朱钺</t>
-  </si>
-  <si>
-    <t>19.00</t>
   </si>
 </sst>
 </file>
@@ -186,13 +231,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,13 +253,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -223,6 +261,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,20 +297,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -267,38 +343,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -321,29 +373,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -357,14 +386,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,13 +423,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,49 +447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,13 +465,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +507,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,37 +537,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,42 +585,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -606,6 +620,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -625,7 +691,33 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,22 +726,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,187 +748,161 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -865,31 +916,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,7 +946,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1919,10 +1979,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R156"/>
+  <dimension ref="A1:R155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.91111111111111" defaultRowHeight="15"/>
@@ -1938,8 +1998,8 @@
     <col min="9" max="9" width="11.3333333333333" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.3333333333333" style="3" customWidth="1"/>
     <col min="11" max="11" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33333333333333" style="1" customWidth="1"/>
-    <col min="13" max="15" width="11.3333333333333" style="2" customWidth="1"/>
+    <col min="12" max="14" width="7.33333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3333333333333" style="2" customWidth="1"/>
     <col min="16" max="16" width="7.33333333333333" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.33333333333333" style="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="1" customWidth="1"/>
@@ -2015,12 +2075,12 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18"/>
       <c r="Q3" s="6" t="s">
         <v>9</v>
       </c>
@@ -2041,7 +2101,7 @@
       <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -2053,16 +2113,16 @@
       <c r="J4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="7" t="s">
@@ -2081,40 +2141,34 @@
       <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9">
-        <v>22.75</v>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>26.776</v>
-      </c>
-      <c r="F5" s="14">
-        <v>20</v>
-      </c>
-      <c r="G5" s="15">
+        <v>24</v>
+      </c>
+      <c r="E5" s="12">
+        <v>9</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14">
         <v>9</v>
       </c>
       <c r="H5" s="6">
         <v>28</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>6.5</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15">
+      <c r="J5" s="13"/>
+      <c r="K5" s="14">
         <v>6.5</v>
       </c>
       <c r="L5" s="6">
         <v>14</v>
       </c>
-      <c r="M5" s="9">
-        <v>2.85</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="9">
         <v>2.85</v>
       </c>
@@ -2124,51 +2178,45 @@
       </c>
       <c r="Q5" s="6">
         <f>D5+H5+L5+P5</f>
-        <v>58</v>
-      </c>
-      <c r="R5" s="16"/>
+        <v>82</v>
+      </c>
+      <c r="R5" s="19"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9">
-        <v>14.5</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>18.676</v>
-      </c>
-      <c r="F6" s="14">
-        <v>20</v>
-      </c>
-      <c r="G6" s="15">
+        <v>24</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14">
         <v>2.5</v>
       </c>
       <c r="H6" s="6">
         <v>24</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <v>5</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15">
+      <c r="J6" s="13"/>
+      <c r="K6" s="14">
         <v>5</v>
       </c>
       <c r="L6" s="6">
         <v>14</v>
       </c>
-      <c r="M6" s="9">
-        <v>2</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="9">
         <v>2</v>
       </c>
@@ -2178,51 +2226,45 @@
       </c>
       <c r="Q6" s="6">
         <f t="shared" ref="Q6:Q30" si="0">D6+H6+L6+P6</f>
-        <v>52</v>
-      </c>
-      <c r="R6" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="R6" s="20"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9">
-        <v>15.3</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>17.777</v>
-      </c>
-      <c r="F7" s="14">
-        <v>20</v>
-      </c>
-      <c r="G7" s="15">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12">
+        <v>6</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14">
         <v>6</v>
       </c>
       <c r="H7" s="6">
         <v>24</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>3</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15">
+      <c r="J7" s="13"/>
+      <c r="K7" s="14">
         <v>3</v>
       </c>
       <c r="L7" s="6">
         <v>14</v>
       </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
       <c r="O7" s="9">
         <v>0</v>
       </c>
@@ -2232,51 +2274,45 @@
       </c>
       <c r="Q7" s="6">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="R7" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="R7" s="20"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="9">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13">
-        <v>16.868</v>
-      </c>
-      <c r="F8" s="14">
-        <v>18</v>
-      </c>
-      <c r="G8" s="15">
+        <v>26</v>
+      </c>
+      <c r="E8" s="12">
+        <v>10.5</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14">
         <v>10.5</v>
       </c>
       <c r="H8" s="6">
         <v>30</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>42</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15">
+      <c r="J8" s="13"/>
+      <c r="K8" s="14">
         <v>42</v>
       </c>
       <c r="L8" s="6">
         <v>20</v>
       </c>
-      <c r="M8" s="9">
-        <v>6.724</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="9">
         <v>6.724</v>
       </c>
@@ -2286,51 +2322,45 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="R8" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="R8" s="20"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="9">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
-        <v>9</v>
-      </c>
-      <c r="F9" s="14">
-        <v>14</v>
-      </c>
-      <c r="G9" s="15">
+        <v>28</v>
+      </c>
+      <c r="E9" s="12">
+        <v>8</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14">
         <v>8</v>
       </c>
       <c r="H9" s="6">
         <v>26</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>7.5</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15">
+      <c r="J9" s="13"/>
+      <c r="K9" s="14">
         <v>7.5</v>
       </c>
       <c r="L9" s="6">
         <v>16</v>
       </c>
-      <c r="M9" s="9">
-        <v>11.307</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
       <c r="O9" s="9">
         <v>11.307</v>
       </c>
@@ -2340,51 +2370,45 @@
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="R9" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="R9" s="20"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="9">
-        <v>11.05</v>
+        <v>31</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
-        <v>11.53</v>
-      </c>
-      <c r="F10" s="14">
-        <v>16</v>
-      </c>
-      <c r="G10" s="15">
+        <v>28</v>
+      </c>
+      <c r="E10" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14">
         <v>7.5</v>
       </c>
       <c r="H10" s="6">
         <v>24</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>2.5</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15">
+      <c r="J10" s="13"/>
+      <c r="K10" s="14">
         <v>2.5</v>
       </c>
       <c r="L10" s="6">
         <v>14</v>
       </c>
-      <c r="M10" s="9">
-        <v>5.2</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="9">
         <v>5.2</v>
       </c>
@@ -2394,51 +2418,45 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="R10" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="9">
-        <v>11.25</v>
+        <v>33</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>11.25</v>
-      </c>
-      <c r="F11" s="14">
-        <v>16</v>
-      </c>
-      <c r="G11" s="15">
+        <v>30</v>
+      </c>
+      <c r="E11" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14">
         <v>8.5</v>
       </c>
       <c r="H11" s="6">
         <v>26</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>7.5</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15">
+      <c r="J11" s="13"/>
+      <c r="K11" s="14">
         <v>7.5</v>
       </c>
       <c r="L11" s="6">
         <v>16</v>
       </c>
-      <c r="M11" s="9">
-        <v>2.2</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="9">
         <v>2.2</v>
       </c>
@@ -2448,53 +2466,47 @@
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="R11" s="17"/>
+        <v>88</v>
+      </c>
+      <c r="R11" s="20"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="9">
-        <v>14.25</v>
+        <v>35</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13">
-        <v>14.25</v>
-      </c>
-      <c r="F12" s="14">
-        <v>18</v>
-      </c>
-      <c r="G12" s="15">
+        <v>26</v>
+      </c>
+      <c r="E12" s="12">
+        <v>15.5</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14">
         <v>15.5</v>
       </c>
       <c r="H12" s="6">
         <v>30</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>24.5</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>2.4</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <v>26.9</v>
       </c>
       <c r="L12" s="6">
         <v>20</v>
       </c>
-      <c r="M12" s="9">
-        <v>6</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
       <c r="O12" s="9">
         <v>6</v>
       </c>
@@ -2504,51 +2516,45 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="R12" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="R12" s="20"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="9">
-        <v>11.4</v>
+        <v>37</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>12.519</v>
-      </c>
-      <c r="F13" s="14">
-        <v>16</v>
-      </c>
-      <c r="G13" s="15">
+        <v>24</v>
+      </c>
+      <c r="E13" s="12">
+        <v>7</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14">
         <v>7</v>
       </c>
       <c r="H13" s="6">
         <v>24</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>1</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15">
+      <c r="J13" s="13"/>
+      <c r="K13" s="14">
         <v>1</v>
       </c>
       <c r="L13" s="6">
         <v>14</v>
       </c>
-      <c r="M13" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="9">
         <v>0.4</v>
       </c>
@@ -2558,28 +2564,28 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="R13" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="6">
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="9">
-        <v>16.7</v>
+        <v>39</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
-        <v>16.7</v>
-      </c>
-      <c r="F14" s="14">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="E14" s="12">
+        <v>9</v>
+      </c>
+      <c r="F14" s="13">
+        <v>7.4</v>
       </c>
       <c r="G14" s="6">
         <v>16.4</v>
@@ -2587,22 +2593,18 @@
       <c r="H14" s="6">
         <v>30</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>23.5</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15">
+      <c r="J14" s="13"/>
+      <c r="K14" s="14">
         <v>23.5</v>
       </c>
       <c r="L14" s="6">
         <v>18</v>
       </c>
-      <c r="M14" s="9">
-        <v>4.696</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
       <c r="O14" s="9">
         <v>4.696</v>
       </c>
@@ -2612,39 +2614,37 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="R14" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="6">
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="9">
-        <v>10.35</v>
+        <v>41</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13">
-        <v>10.35</v>
-      </c>
-      <c r="F15" s="14">
-        <v>14</v>
-      </c>
-      <c r="G15" s="15">
+        <v>26</v>
+      </c>
+      <c r="E15" s="12">
+        <v>9</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14">
         <v>9</v>
       </c>
       <c r="H15" s="6">
         <v>28</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <v>12</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>17</v>
       </c>
       <c r="K15" s="6">
@@ -2653,12 +2653,8 @@
       <c r="L15" s="6">
         <v>20</v>
       </c>
-      <c r="M15" s="9">
-        <v>1.1</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="9">
         <v>1.1</v>
       </c>
@@ -2668,51 +2664,45 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="R15" s="17"/>
+        <v>88</v>
+      </c>
+      <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="9">
-        <v>14.65</v>
+        <v>43</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="13">
-        <v>14.65</v>
-      </c>
-      <c r="F16" s="14">
-        <v>18</v>
-      </c>
-      <c r="G16" s="15">
+        <v>30</v>
+      </c>
+      <c r="E16" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14">
         <v>9.5</v>
       </c>
       <c r="H16" s="6">
         <v>28</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <v>16.5</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15">
+      <c r="J16" s="13"/>
+      <c r="K16" s="14">
         <v>16.5</v>
       </c>
       <c r="L16" s="6">
         <v>18</v>
       </c>
-      <c r="M16" s="9">
-        <v>11.955</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="9">
         <v>11.955</v>
       </c>
@@ -2722,51 +2712,45 @@
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="R16" s="17"/>
+        <v>96</v>
+      </c>
+      <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="6">
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="9">
-        <v>18.15</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="13">
-        <v>18.15</v>
-      </c>
-      <c r="F17" s="14">
-        <v>20</v>
-      </c>
-      <c r="G17" s="15">
+        <v>24</v>
+      </c>
+      <c r="E17" s="12">
+        <v>7</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14">
         <v>7</v>
       </c>
       <c r="H17" s="6">
         <v>24</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>6.5</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15">
+      <c r="J17" s="13"/>
+      <c r="K17" s="14">
         <v>6.5</v>
       </c>
       <c r="L17" s="6">
         <v>14</v>
       </c>
-      <c r="M17" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
       <c r="O17" s="9">
         <v>1.4</v>
       </c>
@@ -2776,51 +2760,45 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="R17" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="6">
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="9">
-        <v>8.25</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="13">
-        <v>8.55</v>
-      </c>
-      <c r="F18" s="14">
-        <v>14</v>
-      </c>
-      <c r="G18" s="15">
+        <v>24</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14">
         <v>4</v>
       </c>
       <c r="H18" s="6">
         <v>24</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>4</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15">
+      <c r="J18" s="13"/>
+      <c r="K18" s="14">
         <v>4</v>
       </c>
       <c r="L18" s="6">
         <v>14</v>
       </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="9">
         <v>0</v>
       </c>
@@ -2830,7 +2808,7 @@
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="R18" s="6"/>
     </row>
@@ -2839,42 +2817,36 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="9">
-        <v>3.5</v>
+        <v>49</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="13">
-        <v>3.5</v>
-      </c>
-      <c r="F19" s="14">
-        <v>14</v>
-      </c>
-      <c r="G19" s="15">
+        <v>24</v>
+      </c>
+      <c r="E19" s="12">
+        <v>10</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14">
         <v>10</v>
       </c>
       <c r="H19" s="6">
         <v>28</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <v>11</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15">
+      <c r="J19" s="13"/>
+      <c r="K19" s="14">
         <v>11</v>
       </c>
       <c r="L19" s="6">
         <v>16</v>
       </c>
-      <c r="M19" s="9">
-        <v>2.45</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="9">
         <v>2.45</v>
       </c>
@@ -2884,7 +2856,7 @@
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="R19" s="6"/>
     </row>
@@ -2893,42 +2865,36 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2.4</v>
+        <v>51</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="13">
-        <v>2.734</v>
-      </c>
-      <c r="F20" s="14">
-        <v>14</v>
-      </c>
-      <c r="G20" s="15">
+        <v>30</v>
+      </c>
+      <c r="E20" s="12">
+        <v>10</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14">
         <v>10</v>
       </c>
       <c r="H20" s="6">
         <v>28</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>18.5</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15">
+      <c r="J20" s="13"/>
+      <c r="K20" s="14">
         <v>18.5</v>
       </c>
       <c r="L20" s="6">
         <v>18</v>
       </c>
-      <c r="M20" s="9">
-        <v>1.345</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="9">
         <v>1.345</v>
       </c>
@@ -2938,7 +2904,7 @@
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R20" s="6"/>
     </row>
@@ -2947,42 +2913,36 @@
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0.4</v>
+        <v>53</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F21" s="14">
-        <v>14</v>
-      </c>
-      <c r="G21" s="15">
+        <v>28</v>
+      </c>
+      <c r="E21" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14">
         <v>7.5</v>
       </c>
       <c r="H21" s="6">
         <v>24</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>12</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15">
+      <c r="J21" s="13"/>
+      <c r="K21" s="14">
         <v>12</v>
       </c>
       <c r="L21" s="6">
         <v>16</v>
       </c>
-      <c r="M21" s="9">
-        <v>7.542</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="9">
         <v>7.542</v>
       </c>
@@ -2992,7 +2952,7 @@
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="R21" s="6"/>
     </row>
@@ -3001,42 +2961,36 @@
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="9">
-        <v>1.65</v>
+        <v>54</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="13">
-        <v>1.65</v>
-      </c>
-      <c r="F22" s="14">
-        <v>14</v>
-      </c>
-      <c r="G22" s="15">
+        <v>30</v>
+      </c>
+      <c r="E22" s="12">
+        <v>9</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14">
         <v>9</v>
       </c>
       <c r="H22" s="6">
         <v>28</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <v>7</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15">
+      <c r="J22" s="13"/>
+      <c r="K22" s="14">
         <v>7</v>
       </c>
       <c r="L22" s="6">
         <v>14</v>
       </c>
-      <c r="M22" s="9">
-        <v>2.116</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
       <c r="O22" s="9">
         <v>2.116</v>
       </c>
@@ -3046,7 +3000,7 @@
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="R22" s="6"/>
     </row>
@@ -3055,40 +3009,36 @@
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D23" s="6">
         <v>24</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>3.5</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15">
+      <c r="F23" s="13"/>
+      <c r="G23" s="14">
         <v>3.5</v>
       </c>
       <c r="H23" s="6">
         <v>24</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="12">
         <v>2</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15">
+      <c r="J23" s="13"/>
+      <c r="K23" s="14">
         <v>2</v>
       </c>
       <c r="L23" s="6">
         <v>14</v>
       </c>
-      <c r="M23" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
       <c r="O23" s="9">
         <v>0.3</v>
       </c>
@@ -3107,40 +3057,36 @@
         <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D24" s="6">
         <v>24</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>4</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15">
+      <c r="F24" s="13"/>
+      <c r="G24" s="14">
         <v>4</v>
       </c>
       <c r="H24" s="6">
         <v>24</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="12">
         <v>16</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15">
+      <c r="J24" s="13"/>
+      <c r="K24" s="14">
         <v>16</v>
       </c>
       <c r="L24" s="6">
         <v>18</v>
       </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="9">
         <v>0</v>
       </c>
@@ -3159,40 +3105,36 @@
         <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D25" s="6">
         <v>28</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>10.5</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15">
+      <c r="F25" s="13"/>
+      <c r="G25" s="14">
         <v>10.5</v>
       </c>
       <c r="H25" s="6">
         <v>30</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="12">
         <v>24.5</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15">
+      <c r="J25" s="13"/>
+      <c r="K25" s="14">
         <v>24.5</v>
       </c>
       <c r="L25" s="6">
         <v>20</v>
       </c>
-      <c r="M25" s="9">
-        <v>18.428</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0</v>
-      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
       <c r="O25" s="9">
         <v>18.428</v>
       </c>
@@ -3211,40 +3153,36 @@
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D26" s="6">
         <v>30</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>7</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15">
+      <c r="F26" s="13"/>
+      <c r="G26" s="14">
         <v>7</v>
       </c>
       <c r="H26" s="6">
         <v>24</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="12">
         <v>46.5</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15">
+      <c r="J26" s="13"/>
+      <c r="K26" s="14">
         <v>46.5</v>
       </c>
       <c r="L26" s="6">
         <v>20</v>
       </c>
-      <c r="M26" s="9">
-        <v>21.863</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0</v>
-      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
       <c r="O26" s="9">
         <v>21.863</v>
       </c>
@@ -3263,40 +3201,36 @@
         <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D27" s="6">
         <v>24</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>8.5</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15">
+      <c r="F27" s="13"/>
+      <c r="G27" s="14">
         <v>8.5</v>
       </c>
       <c r="H27" s="6">
         <v>26</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="12">
         <v>14</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15">
+      <c r="J27" s="13"/>
+      <c r="K27" s="14">
         <v>14</v>
       </c>
       <c r="L27" s="6">
         <v>16</v>
       </c>
-      <c r="M27" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0</v>
-      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
       <c r="O27" s="9">
         <v>1.8</v>
       </c>
@@ -3315,40 +3249,36 @@
         <v>25</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D28" s="6">
         <v>28</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <v>6.5</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15">
+      <c r="F28" s="13"/>
+      <c r="G28" s="14">
         <v>6.5</v>
       </c>
       <c r="H28" s="6">
         <v>24</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="12">
         <v>24.5</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15">
+      <c r="J28" s="13"/>
+      <c r="K28" s="14">
         <v>24.5</v>
       </c>
       <c r="L28" s="6">
         <v>20</v>
       </c>
-      <c r="M28" s="9">
-        <v>7.528</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0</v>
-      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
       <c r="O28" s="9">
         <v>7.528</v>
       </c>
@@ -3367,18 +3297,18 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D29" s="6">
         <v>30</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <v>11</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="13">
         <v>33.76</v>
       </c>
       <c r="G29" s="6">
@@ -3387,10 +3317,10 @@
       <c r="H29" s="6">
         <v>30</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="12">
         <v>30</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="13">
         <v>42</v>
       </c>
       <c r="K29" s="6">
@@ -3399,12 +3329,8 @@
       <c r="L29" s="6">
         <v>20</v>
       </c>
-      <c r="M29" s="9">
-        <v>7.249</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
-      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
       <c r="O29" s="9">
         <v>7.249</v>
       </c>
@@ -3423,28 +3349,28 @@
         <v>27</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D30" s="6">
         <v>26</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <v>10</v>
       </c>
-      <c r="F30" s="14"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="6">
         <v>10</v>
       </c>
       <c r="H30" s="6">
         <v>28</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="12">
         <v>8.5</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="13">
         <v>2.4</v>
       </c>
       <c r="K30" s="6">
@@ -3453,12 +3379,8 @@
       <c r="L30" s="6">
         <v>16</v>
       </c>
-      <c r="M30" s="9">
-        <v>9.525</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0</v>
-      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
       <c r="O30" s="9">
         <v>9.525</v>
       </c>
@@ -3477,16 +3399,16 @@
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="14"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="14"/>
+      <c r="J31" s="13"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
       <c r="O31" s="10"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
@@ -3498,15 +3420,15 @@
       <c r="C32" s="10"/>
       <c r="D32" s="6"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="14"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="14"/>
+      <c r="J32" s="13"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
       <c r="O32" s="10"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -3518,15 +3440,15 @@
       <c r="C33" s="10"/>
       <c r="D33" s="6"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="14"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="14"/>
+      <c r="J33" s="13"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
       <c r="O33" s="10"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
@@ -3538,15 +3460,15 @@
       <c r="C34" s="10"/>
       <c r="D34" s="6"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="14"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="14"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
       <c r="O34" s="10"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
@@ -3558,15 +3480,15 @@
       <c r="C35" s="10"/>
       <c r="D35" s="6"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="14"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="14"/>
+      <c r="J35" s="13"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
       <c r="O35" s="10"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
@@ -3578,15 +3500,15 @@
       <c r="C36" s="10"/>
       <c r="D36" s="6"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="14"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="14"/>
+      <c r="J36" s="13"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
       <c r="O36" s="10"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
@@ -3598,15 +3520,15 @@
       <c r="C37" s="10"/>
       <c r="D37" s="6"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="14"/>
+      <c r="F37" s="13"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="10"/>
-      <c r="J37" s="14"/>
+      <c r="J37" s="13"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
       <c r="O37" s="10"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
@@ -3618,13 +3540,15 @@
       <c r="C38" s="10"/>
       <c r="D38" s="6"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="14"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
       <c r="O38" s="10"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
@@ -3636,13 +3560,15 @@
       <c r="C39" s="10"/>
       <c r="D39" s="6"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="14"/>
+      <c r="F39" s="13"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="13"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
       <c r="O39" s="10"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -3654,13 +3580,15 @@
       <c r="C40" s="10"/>
       <c r="D40" s="6"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="14"/>
+      <c r="F40" s="13"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="13"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
       <c r="O40" s="10"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
@@ -3672,13 +3600,15 @@
       <c r="C41" s="10"/>
       <c r="D41" s="6"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="14"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="13"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
       <c r="O41" s="10"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -3690,13 +3620,15 @@
       <c r="C42" s="10"/>
       <c r="D42" s="6"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="14"/>
+      <c r="F42" s="13"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="13"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
       <c r="O42" s="10"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -3708,13 +3640,15 @@
       <c r="C43" s="10"/>
       <c r="D43" s="6"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="14"/>
+      <c r="F43" s="13"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="13"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
       <c r="O43" s="10"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
@@ -3726,13 +3660,15 @@
       <c r="C44" s="10"/>
       <c r="D44" s="6"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="14"/>
+      <c r="F44" s="13"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="13"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
       <c r="O44" s="10"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
@@ -3744,13 +3680,15 @@
       <c r="C45" s="10"/>
       <c r="D45" s="6"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="14"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="13"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
       <c r="O45" s="10"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
@@ -3762,13 +3700,15 @@
       <c r="C46" s="10"/>
       <c r="D46" s="6"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="14"/>
+      <c r="F46" s="13"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="13"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
       <c r="O46" s="10"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
@@ -3780,13 +3720,15 @@
       <c r="C47" s="10"/>
       <c r="D47" s="6"/>
       <c r="E47" s="10"/>
-      <c r="F47" s="14"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="13"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
       <c r="O47" s="10"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
@@ -3798,13 +3740,15 @@
       <c r="C48" s="10"/>
       <c r="D48" s="6"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="14"/>
+      <c r="F48" s="13"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="13"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
       <c r="O48" s="10"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
@@ -3816,13 +3760,15 @@
       <c r="C49" s="10"/>
       <c r="D49" s="6"/>
       <c r="E49" s="10"/>
-      <c r="F49" s="14"/>
+      <c r="F49" s="13"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="13"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
       <c r="O49" s="10"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
@@ -3834,13 +3780,15 @@
       <c r="C50" s="10"/>
       <c r="D50" s="6"/>
       <c r="E50" s="10"/>
-      <c r="F50" s="14"/>
+      <c r="F50" s="13"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="13"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
       <c r="O50" s="10"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
@@ -3852,13 +3800,15 @@
       <c r="C51" s="10"/>
       <c r="D51" s="6"/>
       <c r="E51" s="10"/>
-      <c r="F51" s="14"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="13"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
       <c r="O51" s="10"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
@@ -3870,13 +3820,15 @@
       <c r="C52" s="10"/>
       <c r="D52" s="6"/>
       <c r="E52" s="10"/>
-      <c r="F52" s="14"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="13"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
       <c r="O52" s="10"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
@@ -3888,13 +3840,15 @@
       <c r="C53" s="10"/>
       <c r="D53" s="6"/>
       <c r="E53" s="10"/>
-      <c r="F53" s="14"/>
+      <c r="F53" s="13"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="13"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
       <c r="O53" s="10"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -3906,13 +3860,15 @@
       <c r="C54" s="10"/>
       <c r="D54" s="6"/>
       <c r="E54" s="10"/>
-      <c r="F54" s="14"/>
+      <c r="F54" s="13"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="13"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
       <c r="O54" s="10"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
@@ -3924,13 +3880,15 @@
       <c r="C55" s="10"/>
       <c r="D55" s="6"/>
       <c r="E55" s="10"/>
-      <c r="F55" s="14"/>
+      <c r="F55" s="13"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="13"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
       <c r="O55" s="10"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
@@ -3942,13 +3900,15 @@
       <c r="C56" s="10"/>
       <c r="D56" s="6"/>
       <c r="E56" s="10"/>
-      <c r="F56" s="14"/>
+      <c r="F56" s="13"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="13"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
       <c r="O56" s="10"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
@@ -3960,13 +3920,15 @@
       <c r="C57" s="10"/>
       <c r="D57" s="6"/>
       <c r="E57" s="10"/>
-      <c r="F57" s="14"/>
+      <c r="F57" s="13"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="13"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
       <c r="O57" s="10"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
@@ -3978,13 +3940,15 @@
       <c r="C58" s="10"/>
       <c r="D58" s="6"/>
       <c r="E58" s="10"/>
-      <c r="F58" s="14"/>
+      <c r="F58" s="13"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="13"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
       <c r="O58" s="10"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
@@ -3996,13 +3960,15 @@
       <c r="C59" s="10"/>
       <c r="D59" s="6"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="14"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="13"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
       <c r="O59" s="10"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
@@ -4014,13 +3980,15 @@
       <c r="C60" s="10"/>
       <c r="D60" s="6"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="14"/>
+      <c r="F60" s="13"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="13"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
       <c r="O60" s="10"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
@@ -4032,13 +4000,15 @@
       <c r="C61" s="10"/>
       <c r="D61" s="6"/>
       <c r="E61" s="10"/>
-      <c r="F61" s="14"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="13"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
       <c r="O61" s="10"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
@@ -4050,13 +4020,15 @@
       <c r="C62" s="10"/>
       <c r="D62" s="6"/>
       <c r="E62" s="10"/>
-      <c r="F62" s="14"/>
+      <c r="F62" s="13"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="13"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
       <c r="O62" s="10"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
@@ -4068,13 +4040,15 @@
       <c r="C63" s="10"/>
       <c r="D63" s="6"/>
       <c r="E63" s="10"/>
-      <c r="F63" s="14"/>
+      <c r="F63" s="13"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="13"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
       <c r="O63" s="10"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
@@ -4086,15 +4060,15 @@
       <c r="C64" s="10"/>
       <c r="D64" s="6"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="14"/>
+      <c r="F64" s="13"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="10"/>
-      <c r="J64" s="14"/>
+      <c r="J64" s="13"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
       <c r="O64" s="10"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
@@ -4106,15 +4080,15 @@
       <c r="C65" s="10"/>
       <c r="D65" s="6"/>
       <c r="E65" s="10"/>
-      <c r="F65" s="14"/>
+      <c r="F65" s="13"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="10"/>
-      <c r="J65" s="14"/>
+      <c r="J65" s="13"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
       <c r="O65" s="10"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
@@ -4126,15 +4100,15 @@
       <c r="C66" s="10"/>
       <c r="D66" s="6"/>
       <c r="E66" s="10"/>
-      <c r="F66" s="14"/>
+      <c r="F66" s="13"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="14"/>
+      <c r="J66" s="13"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
       <c r="O66" s="10"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
@@ -4146,15 +4120,15 @@
       <c r="C67" s="10"/>
       <c r="D67" s="6"/>
       <c r="E67" s="10"/>
-      <c r="F67" s="14"/>
+      <c r="F67" s="13"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="14"/>
+      <c r="J67" s="13"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
       <c r="O67" s="10"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
@@ -4166,15 +4140,15 @@
       <c r="C68" s="10"/>
       <c r="D68" s="6"/>
       <c r="E68" s="10"/>
-      <c r="F68" s="14"/>
+      <c r="F68" s="13"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="14"/>
+      <c r="J68" s="13"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
       <c r="O68" s="10"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
@@ -4186,15 +4160,15 @@
       <c r="C69" s="10"/>
       <c r="D69" s="6"/>
       <c r="E69" s="10"/>
-      <c r="F69" s="14"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="10"/>
-      <c r="J69" s="14"/>
+      <c r="J69" s="13"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
       <c r="O69" s="10"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
@@ -4206,15 +4180,15 @@
       <c r="C70" s="10"/>
       <c r="D70" s="6"/>
       <c r="E70" s="10"/>
-      <c r="F70" s="14"/>
+      <c r="F70" s="13"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="14"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
       <c r="O70" s="10"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
@@ -4226,15 +4200,15 @@
       <c r="C71" s="10"/>
       <c r="D71" s="6"/>
       <c r="E71" s="10"/>
-      <c r="F71" s="14"/>
+      <c r="F71" s="13"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="10"/>
-      <c r="J71" s="14"/>
+      <c r="J71" s="13"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
       <c r="O71" s="10"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
@@ -4246,15 +4220,15 @@
       <c r="C72" s="10"/>
       <c r="D72" s="6"/>
       <c r="E72" s="10"/>
-      <c r="F72" s="14"/>
+      <c r="F72" s="13"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="14"/>
+      <c r="J72" s="13"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
       <c r="O72" s="10"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
@@ -4266,15 +4240,15 @@
       <c r="C73" s="10"/>
       <c r="D73" s="6"/>
       <c r="E73" s="10"/>
-      <c r="F73" s="14"/>
+      <c r="F73" s="13"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="10"/>
-      <c r="J73" s="14"/>
+      <c r="J73" s="13"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
       <c r="O73" s="10"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
@@ -4286,15 +4260,15 @@
       <c r="C74" s="10"/>
       <c r="D74" s="6"/>
       <c r="E74" s="10"/>
-      <c r="F74" s="14"/>
+      <c r="F74" s="13"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="10"/>
-      <c r="J74" s="14"/>
+      <c r="J74" s="13"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
       <c r="O74" s="10"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
@@ -4306,15 +4280,15 @@
       <c r="C75" s="10"/>
       <c r="D75" s="6"/>
       <c r="E75" s="10"/>
-      <c r="F75" s="14"/>
+      <c r="F75" s="13"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="10"/>
-      <c r="J75" s="14"/>
+      <c r="J75" s="13"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
       <c r="O75" s="10"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
@@ -4326,15 +4300,15 @@
       <c r="C76" s="10"/>
       <c r="D76" s="6"/>
       <c r="E76" s="10"/>
-      <c r="F76" s="14"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="10"/>
-      <c r="J76" s="14"/>
+      <c r="J76" s="13"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
       <c r="O76" s="10"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
@@ -4346,15 +4320,15 @@
       <c r="C77" s="10"/>
       <c r="D77" s="6"/>
       <c r="E77" s="10"/>
-      <c r="F77" s="14"/>
+      <c r="F77" s="13"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="10"/>
-      <c r="J77" s="14"/>
+      <c r="J77" s="13"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
       <c r="O77" s="10"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
@@ -4366,15 +4340,15 @@
       <c r="C78" s="10"/>
       <c r="D78" s="6"/>
       <c r="E78" s="10"/>
-      <c r="F78" s="14"/>
+      <c r="F78" s="13"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="10"/>
-      <c r="J78" s="14"/>
+      <c r="J78" s="13"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
       <c r="O78" s="10"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
@@ -4386,15 +4360,15 @@
       <c r="C79" s="10"/>
       <c r="D79" s="6"/>
       <c r="E79" s="10"/>
-      <c r="F79" s="14"/>
+      <c r="F79" s="13"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="10"/>
-      <c r="J79" s="14"/>
+      <c r="J79" s="13"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
       <c r="O79" s="10"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
@@ -4406,15 +4380,15 @@
       <c r="C80" s="10"/>
       <c r="D80" s="6"/>
       <c r="E80" s="10"/>
-      <c r="F80" s="14"/>
+      <c r="F80" s="13"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="10"/>
-      <c r="J80" s="14"/>
+      <c r="J80" s="13"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
       <c r="O80" s="10"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
@@ -4426,15 +4400,15 @@
       <c r="C81" s="10"/>
       <c r="D81" s="6"/>
       <c r="E81" s="10"/>
-      <c r="F81" s="14"/>
+      <c r="F81" s="13"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="10"/>
-      <c r="J81" s="14"/>
+      <c r="J81" s="13"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
       <c r="O81" s="10"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
@@ -4446,15 +4420,15 @@
       <c r="C82" s="10"/>
       <c r="D82" s="6"/>
       <c r="E82" s="10"/>
-      <c r="F82" s="14"/>
+      <c r="F82" s="13"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="10"/>
-      <c r="J82" s="14"/>
+      <c r="J82" s="13"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
       <c r="O82" s="10"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
@@ -4466,15 +4440,15 @@
       <c r="C83" s="10"/>
       <c r="D83" s="6"/>
       <c r="E83" s="10"/>
-      <c r="F83" s="14"/>
+      <c r="F83" s="13"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="10"/>
-      <c r="J83" s="14"/>
+      <c r="J83" s="13"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
       <c r="O83" s="10"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
@@ -4486,15 +4460,15 @@
       <c r="C84" s="10"/>
       <c r="D84" s="6"/>
       <c r="E84" s="10"/>
-      <c r="F84" s="14"/>
+      <c r="F84" s="13"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="10"/>
-      <c r="J84" s="14"/>
+      <c r="J84" s="13"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
       <c r="O84" s="10"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
@@ -4506,15 +4480,15 @@
       <c r="C85" s="10"/>
       <c r="D85" s="6"/>
       <c r="E85" s="10"/>
-      <c r="F85" s="14"/>
+      <c r="F85" s="13"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="10"/>
-      <c r="J85" s="14"/>
+      <c r="J85" s="13"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
       <c r="O85" s="10"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
@@ -4526,15 +4500,15 @@
       <c r="C86" s="10"/>
       <c r="D86" s="6"/>
       <c r="E86" s="10"/>
-      <c r="F86" s="14"/>
+      <c r="F86" s="13"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="10"/>
-      <c r="J86" s="14"/>
+      <c r="J86" s="13"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
       <c r="O86" s="10"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
@@ -4546,15 +4520,15 @@
       <c r="C87" s="10"/>
       <c r="D87" s="6"/>
       <c r="E87" s="10"/>
-      <c r="F87" s="14"/>
+      <c r="F87" s="13"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="10"/>
-      <c r="J87" s="14"/>
+      <c r="J87" s="13"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
       <c r="O87" s="10"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
@@ -4566,15 +4540,15 @@
       <c r="C88" s="10"/>
       <c r="D88" s="6"/>
       <c r="E88" s="10"/>
-      <c r="F88" s="14"/>
+      <c r="F88" s="13"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="10"/>
-      <c r="J88" s="14"/>
+      <c r="J88" s="13"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
       <c r="O88" s="10"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
@@ -4586,15 +4560,15 @@
       <c r="C89" s="10"/>
       <c r="D89" s="6"/>
       <c r="E89" s="10"/>
-      <c r="F89" s="14"/>
+      <c r="F89" s="13"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="10"/>
-      <c r="J89" s="14"/>
+      <c r="J89" s="13"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
       <c r="O89" s="10"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
@@ -4606,15 +4580,15 @@
       <c r="C90" s="10"/>
       <c r="D90" s="6"/>
       <c r="E90" s="10"/>
-      <c r="F90" s="14"/>
+      <c r="F90" s="13"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="10"/>
-      <c r="J90" s="14"/>
+      <c r="J90" s="13"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
       <c r="O90" s="10"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
@@ -4626,15 +4600,15 @@
       <c r="C91" s="10"/>
       <c r="D91" s="6"/>
       <c r="E91" s="10"/>
-      <c r="F91" s="14"/>
+      <c r="F91" s="13"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="10"/>
-      <c r="J91" s="14"/>
+      <c r="J91" s="13"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
       <c r="O91" s="10"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
@@ -4646,15 +4620,15 @@
       <c r="C92" s="10"/>
       <c r="D92" s="6"/>
       <c r="E92" s="10"/>
-      <c r="F92" s="14"/>
+      <c r="F92" s="13"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="10"/>
-      <c r="J92" s="14"/>
+      <c r="J92" s="13"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
       <c r="O92" s="10"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
@@ -4666,15 +4640,15 @@
       <c r="C93" s="10"/>
       <c r="D93" s="6"/>
       <c r="E93" s="10"/>
-      <c r="F93" s="14"/>
+      <c r="F93" s="13"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="10"/>
-      <c r="J93" s="14"/>
+      <c r="J93" s="13"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="10"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
       <c r="O93" s="10"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
@@ -4686,15 +4660,15 @@
       <c r="C94" s="10"/>
       <c r="D94" s="6"/>
       <c r="E94" s="10"/>
-      <c r="F94" s="14"/>
+      <c r="F94" s="13"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="14"/>
+      <c r="J94" s="13"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
       <c r="O94" s="10"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
@@ -4706,15 +4680,15 @@
       <c r="C95" s="10"/>
       <c r="D95" s="6"/>
       <c r="E95" s="10"/>
-      <c r="F95" s="14"/>
+      <c r="F95" s="13"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="10"/>
-      <c r="J95" s="14"/>
+      <c r="J95" s="13"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="10"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
       <c r="O95" s="10"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
@@ -4726,15 +4700,15 @@
       <c r="C96" s="10"/>
       <c r="D96" s="6"/>
       <c r="E96" s="10"/>
-      <c r="F96" s="14"/>
+      <c r="F96" s="13"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="10"/>
-      <c r="J96" s="14"/>
+      <c r="J96" s="13"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="10"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
       <c r="O96" s="10"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
@@ -4746,15 +4720,15 @@
       <c r="C97" s="10"/>
       <c r="D97" s="6"/>
       <c r="E97" s="10"/>
-      <c r="F97" s="14"/>
+      <c r="F97" s="13"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="10"/>
-      <c r="J97" s="14"/>
+      <c r="J97" s="13"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="10"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
       <c r="O97" s="10"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
@@ -4766,15 +4740,15 @@
       <c r="C98" s="10"/>
       <c r="D98" s="6"/>
       <c r="E98" s="10"/>
-      <c r="F98" s="14"/>
+      <c r="F98" s="13"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="10"/>
-      <c r="J98" s="14"/>
+      <c r="J98" s="13"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
       <c r="O98" s="10"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
@@ -4786,15 +4760,15 @@
       <c r="C99" s="10"/>
       <c r="D99" s="6"/>
       <c r="E99" s="10"/>
-      <c r="F99" s="14"/>
+      <c r="F99" s="13"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="10"/>
-      <c r="J99" s="14"/>
+      <c r="J99" s="13"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
       <c r="O99" s="10"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
@@ -4806,15 +4780,15 @@
       <c r="C100" s="10"/>
       <c r="D100" s="6"/>
       <c r="E100" s="10"/>
-      <c r="F100" s="14"/>
+      <c r="F100" s="13"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="10"/>
-      <c r="J100" s="14"/>
+      <c r="J100" s="13"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
       <c r="O100" s="10"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
@@ -4826,15 +4800,15 @@
       <c r="C101" s="10"/>
       <c r="D101" s="6"/>
       <c r="E101" s="10"/>
-      <c r="F101" s="14"/>
+      <c r="F101" s="13"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="10"/>
-      <c r="J101" s="14"/>
+      <c r="J101" s="13"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
       <c r="O101" s="10"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
@@ -4846,15 +4820,15 @@
       <c r="C102" s="10"/>
       <c r="D102" s="6"/>
       <c r="E102" s="10"/>
-      <c r="F102" s="14"/>
+      <c r="F102" s="13"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="10"/>
-      <c r="J102" s="14"/>
+      <c r="J102" s="13"/>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
       <c r="O102" s="10"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
@@ -4866,15 +4840,15 @@
       <c r="C103" s="10"/>
       <c r="D103" s="6"/>
       <c r="E103" s="10"/>
-      <c r="F103" s="14"/>
+      <c r="F103" s="13"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="10"/>
-      <c r="J103" s="14"/>
+      <c r="J103" s="13"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="10"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
       <c r="O103" s="10"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
@@ -4886,15 +4860,15 @@
       <c r="C104" s="10"/>
       <c r="D104" s="6"/>
       <c r="E104" s="10"/>
-      <c r="F104" s="14"/>
+      <c r="F104" s="13"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="10"/>
-      <c r="J104" s="14"/>
+      <c r="J104" s="13"/>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="10"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
       <c r="O104" s="10"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
@@ -4906,15 +4880,15 @@
       <c r="C105" s="10"/>
       <c r="D105" s="6"/>
       <c r="E105" s="10"/>
-      <c r="F105" s="14"/>
+      <c r="F105" s="13"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="10"/>
-      <c r="J105" s="14"/>
+      <c r="J105" s="13"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="10"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
       <c r="O105" s="10"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
@@ -4926,15 +4900,15 @@
       <c r="C106" s="10"/>
       <c r="D106" s="6"/>
       <c r="E106" s="10"/>
-      <c r="F106" s="14"/>
+      <c r="F106" s="13"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="10"/>
-      <c r="J106" s="14"/>
+      <c r="J106" s="13"/>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="10"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
       <c r="O106" s="10"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
@@ -4946,15 +4920,15 @@
       <c r="C107" s="10"/>
       <c r="D107" s="6"/>
       <c r="E107" s="10"/>
-      <c r="F107" s="14"/>
+      <c r="F107" s="13"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
       <c r="I107" s="10"/>
-      <c r="J107" s="14"/>
+      <c r="J107" s="13"/>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
       <c r="O107" s="10"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
@@ -4966,15 +4940,15 @@
       <c r="C108" s="10"/>
       <c r="D108" s="6"/>
       <c r="E108" s="10"/>
-      <c r="F108" s="14"/>
+      <c r="F108" s="13"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
       <c r="I108" s="10"/>
-      <c r="J108" s="14"/>
+      <c r="J108" s="13"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="10"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
       <c r="O108" s="10"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
@@ -4986,15 +4960,15 @@
       <c r="C109" s="10"/>
       <c r="D109" s="6"/>
       <c r="E109" s="10"/>
-      <c r="F109" s="14"/>
+      <c r="F109" s="13"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
       <c r="I109" s="10"/>
-      <c r="J109" s="14"/>
+      <c r="J109" s="13"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="10"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
       <c r="O109" s="10"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
@@ -5006,15 +4980,15 @@
       <c r="C110" s="10"/>
       <c r="D110" s="6"/>
       <c r="E110" s="10"/>
-      <c r="F110" s="14"/>
+      <c r="F110" s="13"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
       <c r="I110" s="10"/>
-      <c r="J110" s="14"/>
+      <c r="J110" s="13"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="10"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
       <c r="O110" s="10"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
@@ -5026,15 +5000,15 @@
       <c r="C111" s="10"/>
       <c r="D111" s="6"/>
       <c r="E111" s="10"/>
-      <c r="F111" s="14"/>
+      <c r="F111" s="13"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
       <c r="I111" s="10"/>
-      <c r="J111" s="14"/>
+      <c r="J111" s="13"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
-      <c r="M111" s="10"/>
-      <c r="N111" s="10"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
       <c r="O111" s="10"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
@@ -5046,15 +5020,15 @@
       <c r="C112" s="10"/>
       <c r="D112" s="6"/>
       <c r="E112" s="10"/>
-      <c r="F112" s="14"/>
+      <c r="F112" s="13"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
       <c r="I112" s="10"/>
-      <c r="J112" s="14"/>
+      <c r="J112" s="13"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
-      <c r="M112" s="10"/>
-      <c r="N112" s="10"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
       <c r="O112" s="10"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
@@ -5066,15 +5040,15 @@
       <c r="C113" s="10"/>
       <c r="D113" s="6"/>
       <c r="E113" s="10"/>
-      <c r="F113" s="14"/>
+      <c r="F113" s="13"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
       <c r="I113" s="10"/>
-      <c r="J113" s="14"/>
+      <c r="J113" s="13"/>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
-      <c r="M113" s="10"/>
-      <c r="N113" s="10"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
       <c r="O113" s="10"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
@@ -5086,15 +5060,15 @@
       <c r="C114" s="10"/>
       <c r="D114" s="6"/>
       <c r="E114" s="10"/>
-      <c r="F114" s="14"/>
+      <c r="F114" s="13"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="10"/>
-      <c r="J114" s="14"/>
+      <c r="J114" s="13"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="10"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
       <c r="O114" s="10"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
@@ -5106,15 +5080,15 @@
       <c r="C115" s="10"/>
       <c r="D115" s="6"/>
       <c r="E115" s="10"/>
-      <c r="F115" s="14"/>
+      <c r="F115" s="13"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
       <c r="I115" s="10"/>
-      <c r="J115" s="14"/>
+      <c r="J115" s="13"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
-      <c r="M115" s="10"/>
-      <c r="N115" s="10"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
       <c r="O115" s="10"/>
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
@@ -5126,15 +5100,15 @@
       <c r="C116" s="10"/>
       <c r="D116" s="6"/>
       <c r="E116" s="10"/>
-      <c r="F116" s="14"/>
+      <c r="F116" s="13"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
       <c r="I116" s="10"/>
-      <c r="J116" s="14"/>
+      <c r="J116" s="13"/>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
-      <c r="M116" s="10"/>
-      <c r="N116" s="10"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
       <c r="O116" s="10"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
@@ -5146,15 +5120,15 @@
       <c r="C117" s="10"/>
       <c r="D117" s="6"/>
       <c r="E117" s="10"/>
-      <c r="F117" s="14"/>
+      <c r="F117" s="13"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
       <c r="I117" s="10"/>
-      <c r="J117" s="14"/>
+      <c r="J117" s="13"/>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
-      <c r="M117" s="10"/>
-      <c r="N117" s="10"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
       <c r="O117" s="10"/>
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
@@ -5166,15 +5140,15 @@
       <c r="C118" s="10"/>
       <c r="D118" s="6"/>
       <c r="E118" s="10"/>
-      <c r="F118" s="14"/>
+      <c r="F118" s="13"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
       <c r="I118" s="10"/>
-      <c r="J118" s="14"/>
+      <c r="J118" s="13"/>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="10"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
       <c r="O118" s="10"/>
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
@@ -5186,15 +5160,15 @@
       <c r="C119" s="10"/>
       <c r="D119" s="6"/>
       <c r="E119" s="10"/>
-      <c r="F119" s="14"/>
+      <c r="F119" s="13"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
       <c r="I119" s="10"/>
-      <c r="J119" s="14"/>
+      <c r="J119" s="13"/>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
-      <c r="M119" s="10"/>
-      <c r="N119" s="10"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
       <c r="O119" s="10"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
@@ -5206,15 +5180,15 @@
       <c r="C120" s="10"/>
       <c r="D120" s="6"/>
       <c r="E120" s="10"/>
-      <c r="F120" s="14"/>
+      <c r="F120" s="13"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
       <c r="I120" s="10"/>
-      <c r="J120" s="14"/>
+      <c r="J120" s="13"/>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
-      <c r="M120" s="10"/>
-      <c r="N120" s="10"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
       <c r="O120" s="10"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
@@ -5226,15 +5200,15 @@
       <c r="C121" s="10"/>
       <c r="D121" s="6"/>
       <c r="E121" s="10"/>
-      <c r="F121" s="14"/>
+      <c r="F121" s="13"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
       <c r="I121" s="10"/>
-      <c r="J121" s="14"/>
+      <c r="J121" s="13"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
-      <c r="M121" s="10"/>
-      <c r="N121" s="10"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
       <c r="O121" s="10"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
@@ -5246,15 +5220,15 @@
       <c r="C122" s="10"/>
       <c r="D122" s="6"/>
       <c r="E122" s="10"/>
-      <c r="F122" s="14"/>
+      <c r="F122" s="13"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
       <c r="I122" s="10"/>
-      <c r="J122" s="14"/>
+      <c r="J122" s="13"/>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
-      <c r="M122" s="10"/>
-      <c r="N122" s="10"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
       <c r="O122" s="10"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
@@ -5266,15 +5240,15 @@
       <c r="C123" s="10"/>
       <c r="D123" s="6"/>
       <c r="E123" s="10"/>
-      <c r="F123" s="14"/>
+      <c r="F123" s="13"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
       <c r="I123" s="10"/>
-      <c r="J123" s="14"/>
+      <c r="J123" s="13"/>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
-      <c r="M123" s="10"/>
-      <c r="N123" s="10"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
       <c r="O123" s="10"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
@@ -5286,15 +5260,15 @@
       <c r="C124" s="10"/>
       <c r="D124" s="6"/>
       <c r="E124" s="10"/>
-      <c r="F124" s="14"/>
+      <c r="F124" s="13"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
       <c r="I124" s="10"/>
-      <c r="J124" s="14"/>
+      <c r="J124" s="13"/>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="10"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
       <c r="O124" s="10"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
@@ -5306,15 +5280,15 @@
       <c r="C125" s="10"/>
       <c r="D125" s="6"/>
       <c r="E125" s="10"/>
-      <c r="F125" s="14"/>
+      <c r="F125" s="13"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
       <c r="I125" s="10"/>
-      <c r="J125" s="14"/>
+      <c r="J125" s="13"/>
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
-      <c r="M125" s="10"/>
-      <c r="N125" s="10"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
       <c r="O125" s="10"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
@@ -5326,15 +5300,15 @@
       <c r="C126" s="10"/>
       <c r="D126" s="6"/>
       <c r="E126" s="10"/>
-      <c r="F126" s="14"/>
+      <c r="F126" s="13"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
       <c r="I126" s="10"/>
-      <c r="J126" s="14"/>
+      <c r="J126" s="13"/>
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
-      <c r="M126" s="10"/>
-      <c r="N126" s="10"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
       <c r="O126" s="10"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
@@ -5346,15 +5320,15 @@
       <c r="C127" s="10"/>
       <c r="D127" s="6"/>
       <c r="E127" s="10"/>
-      <c r="F127" s="14"/>
+      <c r="F127" s="13"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
       <c r="I127" s="10"/>
-      <c r="J127" s="14"/>
+      <c r="J127" s="13"/>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
-      <c r="M127" s="10"/>
-      <c r="N127" s="10"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
       <c r="O127" s="10"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
@@ -5366,15 +5340,15 @@
       <c r="C128" s="10"/>
       <c r="D128" s="6"/>
       <c r="E128" s="10"/>
-      <c r="F128" s="14"/>
+      <c r="F128" s="13"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
       <c r="I128" s="10"/>
-      <c r="J128" s="14"/>
+      <c r="J128" s="13"/>
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="10"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
       <c r="O128" s="10"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
@@ -5386,15 +5360,15 @@
       <c r="C129" s="10"/>
       <c r="D129" s="6"/>
       <c r="E129" s="10"/>
-      <c r="F129" s="14"/>
+      <c r="F129" s="13"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
       <c r="I129" s="10"/>
-      <c r="J129" s="14"/>
+      <c r="J129" s="13"/>
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
       <c r="O129" s="10"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
@@ -5406,15 +5380,15 @@
       <c r="C130" s="10"/>
       <c r="D130" s="6"/>
       <c r="E130" s="10"/>
-      <c r="F130" s="14"/>
+      <c r="F130" s="13"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
       <c r="I130" s="10"/>
-      <c r="J130" s="14"/>
+      <c r="J130" s="13"/>
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="10"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
       <c r="O130" s="10"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
@@ -5426,15 +5400,15 @@
       <c r="C131" s="10"/>
       <c r="D131" s="6"/>
       <c r="E131" s="10"/>
-      <c r="F131" s="14"/>
+      <c r="F131" s="13"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
       <c r="I131" s="10"/>
-      <c r="J131" s="14"/>
+      <c r="J131" s="13"/>
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
-      <c r="M131" s="10"/>
-      <c r="N131" s="10"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
       <c r="O131" s="10"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
@@ -5446,15 +5420,15 @@
       <c r="C132" s="10"/>
       <c r="D132" s="6"/>
       <c r="E132" s="10"/>
-      <c r="F132" s="14"/>
+      <c r="F132" s="13"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
       <c r="I132" s="10"/>
-      <c r="J132" s="14"/>
+      <c r="J132" s="13"/>
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
-      <c r="M132" s="10"/>
-      <c r="N132" s="10"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
       <c r="O132" s="10"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
@@ -5466,15 +5440,15 @@
       <c r="C133" s="10"/>
       <c r="D133" s="6"/>
       <c r="E133" s="10"/>
-      <c r="F133" s="14"/>
+      <c r="F133" s="13"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
       <c r="I133" s="10"/>
-      <c r="J133" s="14"/>
+      <c r="J133" s="13"/>
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
-      <c r="M133" s="10"/>
-      <c r="N133" s="10"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
       <c r="O133" s="10"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
@@ -5486,15 +5460,15 @@
       <c r="C134" s="10"/>
       <c r="D134" s="6"/>
       <c r="E134" s="10"/>
-      <c r="F134" s="14"/>
+      <c r="F134" s="13"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
       <c r="I134" s="10"/>
-      <c r="J134" s="14"/>
+      <c r="J134" s="13"/>
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
-      <c r="M134" s="10"/>
-      <c r="N134" s="10"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
       <c r="O134" s="10"/>
       <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
@@ -5506,15 +5480,15 @@
       <c r="C135" s="10"/>
       <c r="D135" s="6"/>
       <c r="E135" s="10"/>
-      <c r="F135" s="14"/>
+      <c r="F135" s="13"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
       <c r="I135" s="10"/>
-      <c r="J135" s="14"/>
+      <c r="J135" s="13"/>
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
-      <c r="M135" s="10"/>
-      <c r="N135" s="10"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
       <c r="O135" s="10"/>
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
@@ -5526,15 +5500,15 @@
       <c r="C136" s="10"/>
       <c r="D136" s="6"/>
       <c r="E136" s="10"/>
-      <c r="F136" s="14"/>
+      <c r="F136" s="13"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
       <c r="I136" s="10"/>
-      <c r="J136" s="14"/>
+      <c r="J136" s="13"/>
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
-      <c r="M136" s="10"/>
-      <c r="N136" s="10"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
       <c r="O136" s="10"/>
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
@@ -5546,15 +5520,15 @@
       <c r="C137" s="10"/>
       <c r="D137" s="6"/>
       <c r="E137" s="10"/>
-      <c r="F137" s="14"/>
+      <c r="F137" s="13"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
       <c r="I137" s="10"/>
-      <c r="J137" s="14"/>
+      <c r="J137" s="13"/>
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
-      <c r="M137" s="10"/>
-      <c r="N137" s="10"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
       <c r="O137" s="10"/>
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
@@ -5566,15 +5540,15 @@
       <c r="C138" s="10"/>
       <c r="D138" s="6"/>
       <c r="E138" s="10"/>
-      <c r="F138" s="14"/>
+      <c r="F138" s="13"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
       <c r="I138" s="10"/>
-      <c r="J138" s="14"/>
+      <c r="J138" s="13"/>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
-      <c r="M138" s="10"/>
-      <c r="N138" s="10"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
       <c r="O138" s="10"/>
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
@@ -5586,15 +5560,15 @@
       <c r="C139" s="10"/>
       <c r="D139" s="6"/>
       <c r="E139" s="10"/>
-      <c r="F139" s="14"/>
+      <c r="F139" s="13"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
       <c r="I139" s="10"/>
-      <c r="J139" s="14"/>
+      <c r="J139" s="13"/>
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
-      <c r="M139" s="10"/>
-      <c r="N139" s="10"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
       <c r="O139" s="10"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
@@ -5606,15 +5580,15 @@
       <c r="C140" s="10"/>
       <c r="D140" s="6"/>
       <c r="E140" s="10"/>
-      <c r="F140" s="14"/>
+      <c r="F140" s="13"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
       <c r="I140" s="10"/>
-      <c r="J140" s="14"/>
+      <c r="J140" s="13"/>
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
-      <c r="M140" s="10"/>
-      <c r="N140" s="10"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
       <c r="O140" s="10"/>
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
@@ -5626,15 +5600,15 @@
       <c r="C141" s="10"/>
       <c r="D141" s="6"/>
       <c r="E141" s="10"/>
-      <c r="F141" s="14"/>
+      <c r="F141" s="13"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
       <c r="I141" s="10"/>
-      <c r="J141" s="14"/>
+      <c r="J141" s="13"/>
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
-      <c r="M141" s="10"/>
-      <c r="N141" s="10"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
       <c r="O141" s="10"/>
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
@@ -5646,15 +5620,15 @@
       <c r="C142" s="10"/>
       <c r="D142" s="6"/>
       <c r="E142" s="10"/>
-      <c r="F142" s="14"/>
+      <c r="F142" s="13"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
       <c r="I142" s="10"/>
-      <c r="J142" s="14"/>
+      <c r="J142" s="13"/>
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
-      <c r="M142" s="10"/>
-      <c r="N142" s="10"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
       <c r="O142" s="10"/>
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
@@ -5666,15 +5640,15 @@
       <c r="C143" s="10"/>
       <c r="D143" s="6"/>
       <c r="E143" s="10"/>
-      <c r="F143" s="14"/>
+      <c r="F143" s="13"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
       <c r="I143" s="10"/>
-      <c r="J143" s="14"/>
+      <c r="J143" s="13"/>
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
-      <c r="M143" s="10"/>
-      <c r="N143" s="10"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
       <c r="O143" s="10"/>
       <c r="P143" s="6"/>
       <c r="Q143" s="6"/>
@@ -5686,15 +5660,15 @@
       <c r="C144" s="10"/>
       <c r="D144" s="6"/>
       <c r="E144" s="10"/>
-      <c r="F144" s="14"/>
+      <c r="F144" s="13"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
       <c r="I144" s="10"/>
-      <c r="J144" s="14"/>
+      <c r="J144" s="13"/>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
-      <c r="M144" s="10"/>
-      <c r="N144" s="10"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
       <c r="O144" s="10"/>
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
@@ -5706,15 +5680,15 @@
       <c r="C145" s="10"/>
       <c r="D145" s="6"/>
       <c r="E145" s="10"/>
-      <c r="F145" s="14"/>
+      <c r="F145" s="13"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
       <c r="I145" s="10"/>
-      <c r="J145" s="14"/>
+      <c r="J145" s="13"/>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
-      <c r="M145" s="10"/>
-      <c r="N145" s="10"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
       <c r="O145" s="10"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
@@ -5726,15 +5700,15 @@
       <c r="C146" s="10"/>
       <c r="D146" s="6"/>
       <c r="E146" s="10"/>
-      <c r="F146" s="14"/>
+      <c r="F146" s="13"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
       <c r="I146" s="10"/>
-      <c r="J146" s="14"/>
+      <c r="J146" s="13"/>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
-      <c r="M146" s="10"/>
-      <c r="N146" s="10"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
       <c r="O146" s="10"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
@@ -5746,15 +5720,15 @@
       <c r="C147" s="10"/>
       <c r="D147" s="6"/>
       <c r="E147" s="10"/>
-      <c r="F147" s="14"/>
+      <c r="F147" s="13"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
       <c r="I147" s="10"/>
-      <c r="J147" s="14"/>
+      <c r="J147" s="13"/>
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
-      <c r="M147" s="10"/>
-      <c r="N147" s="10"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
       <c r="O147" s="10"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
@@ -5766,15 +5740,15 @@
       <c r="C148" s="10"/>
       <c r="D148" s="6"/>
       <c r="E148" s="10"/>
-      <c r="F148" s="14"/>
+      <c r="F148" s="13"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
       <c r="I148" s="10"/>
-      <c r="J148" s="14"/>
+      <c r="J148" s="13"/>
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
-      <c r="M148" s="10"/>
-      <c r="N148" s="10"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
       <c r="O148" s="10"/>
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
@@ -5786,15 +5760,15 @@
       <c r="C149" s="10"/>
       <c r="D149" s="6"/>
       <c r="E149" s="10"/>
-      <c r="F149" s="14"/>
+      <c r="F149" s="13"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
       <c r="I149" s="10"/>
-      <c r="J149" s="14"/>
+      <c r="J149" s="13"/>
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
-      <c r="M149" s="10"/>
-      <c r="N149" s="10"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
       <c r="O149" s="10"/>
       <c r="P149" s="6"/>
       <c r="Q149" s="6"/>
@@ -5806,15 +5780,15 @@
       <c r="C150" s="10"/>
       <c r="D150" s="6"/>
       <c r="E150" s="10"/>
-      <c r="F150" s="14"/>
+      <c r="F150" s="13"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
       <c r="I150" s="10"/>
-      <c r="J150" s="14"/>
+      <c r="J150" s="13"/>
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
-      <c r="M150" s="10"/>
-      <c r="N150" s="10"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
       <c r="O150" s="10"/>
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
@@ -5826,15 +5800,15 @@
       <c r="C151" s="10"/>
       <c r="D151" s="6"/>
       <c r="E151" s="10"/>
-      <c r="F151" s="14"/>
+      <c r="F151" s="13"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
       <c r="I151" s="10"/>
-      <c r="J151" s="14"/>
+      <c r="J151" s="13"/>
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
-      <c r="M151" s="10"/>
-      <c r="N151" s="10"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
       <c r="O151" s="10"/>
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
@@ -5846,15 +5820,15 @@
       <c r="C152" s="10"/>
       <c r="D152" s="6"/>
       <c r="E152" s="10"/>
-      <c r="F152" s="14"/>
+      <c r="F152" s="13"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
       <c r="I152" s="10"/>
-      <c r="J152" s="14"/>
+      <c r="J152" s="13"/>
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
-      <c r="M152" s="10"/>
-      <c r="N152" s="10"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
       <c r="O152" s="10"/>
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
@@ -5866,15 +5840,15 @@
       <c r="C153" s="10"/>
       <c r="D153" s="6"/>
       <c r="E153" s="10"/>
-      <c r="F153" s="14"/>
+      <c r="F153" s="13"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
       <c r="I153" s="10"/>
-      <c r="J153" s="14"/>
+      <c r="J153" s="13"/>
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
-      <c r="M153" s="10"/>
-      <c r="N153" s="10"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
       <c r="O153" s="10"/>
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
@@ -5886,15 +5860,15 @@
       <c r="C154" s="10"/>
       <c r="D154" s="6"/>
       <c r="E154" s="10"/>
-      <c r="F154" s="14"/>
+      <c r="F154" s="13"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
       <c r="I154" s="10"/>
-      <c r="J154" s="14"/>
+      <c r="J154" s="13"/>
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
-      <c r="M154" s="10"/>
-      <c r="N154" s="10"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
       <c r="O154" s="10"/>
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
@@ -5906,39 +5880,19 @@
       <c r="C155" s="10"/>
       <c r="D155" s="6"/>
       <c r="E155" s="10"/>
-      <c r="F155" s="14"/>
+      <c r="F155" s="13"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
       <c r="I155" s="10"/>
-      <c r="J155" s="14"/>
+      <c r="J155" s="13"/>
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
-      <c r="M155" s="10"/>
-      <c r="N155" s="10"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
       <c r="O155" s="10"/>
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
       <c r="R155" s="6"/>
-    </row>
-    <row r="156" spans="1:18">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="14"/>
-      <c r="K156" s="6"/>
-      <c r="L156" s="6"/>
-      <c r="M156" s="10"/>
-      <c r="N156" s="10"/>
-      <c r="O156" s="10"/>
-      <c r="P156" s="6"/>
-      <c r="Q156" s="6"/>
-      <c r="R156" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
